--- a/data/beds-vents-1111.xlsx
+++ b/data/beds-vents-1111.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="639">
   <si>
     <t>DATE</t>
   </si>
@@ -1928,6 +1928,9 @@
   </si>
   <si>
     <t>2021-11-09</t>
+  </si>
+  <si>
+    <t>2021-11-10</t>
   </si>
 </sst>
 </file>
@@ -2285,7 +2288,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O624"/>
+  <dimension ref="A1:O625"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30791,6 +30794,53 @@
         <v>73.34999999999999</v>
       </c>
     </row>
+    <row r="625" spans="1:15">
+      <c r="A625" t="s">
+        <v>638</v>
+      </c>
+      <c r="B625">
+        <v>2287</v>
+      </c>
+      <c r="C625">
+        <v>344</v>
+      </c>
+      <c r="D625">
+        <v>1381</v>
+      </c>
+      <c r="E625">
+        <v>562</v>
+      </c>
+      <c r="F625">
+        <v>2769</v>
+      </c>
+      <c r="G625">
+        <v>160</v>
+      </c>
+      <c r="H625">
+        <v>553</v>
+      </c>
+      <c r="I625">
+        <v>2056</v>
+      </c>
+      <c r="J625">
+        <v>15.04</v>
+      </c>
+      <c r="K625">
+        <v>60.38</v>
+      </c>
+      <c r="L625">
+        <v>24.57</v>
+      </c>
+      <c r="M625">
+        <v>5.78</v>
+      </c>
+      <c r="N625">
+        <v>19.97</v>
+      </c>
+      <c r="O625">
+        <v>74.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
